--- a/hero/doc/log/log_201608040211_zhangyaohui.xlsx
+++ b/hero/doc/log/log_201608040211_zhangyaohui.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>日期</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t xml:space="preserve"> 将自己写的加入团队</t>
+  </si>
+  <si>
+    <t>14:00-16:40</t>
+  </si>
+  <si>
+    <t>将代码中的注释看一下并加以理解</t>
+  </si>
+  <si>
+    <t>有些还并不是特别明白</t>
+  </si>
+  <si>
+    <t>下一次查阅资料</t>
   </si>
   <si>
     <t>周次</t>
@@ -83,10 +95,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -97,6 +109,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -105,8 +131,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,85 +207,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,21 +232,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,49 +262,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,31 +382,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,97 +400,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,6 +453,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,6 +476,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,17 +506,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -501,13 +524,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,31 +553,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,133 +571,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,13 +1026,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.1333333333333" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1106,6 +1118,23 @@
       </c>
       <c r="D5" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1133,13 +1162,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040211_zhangyaohui.xlsx
+++ b/hero/doc/log/log_201608040211_zhangyaohui.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>日期</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>下一次查阅资料</t>
+  </si>
+  <si>
+    <t>配置一些代码</t>
+  </si>
+  <si>
+    <t>没有完成</t>
+  </si>
+  <si>
+    <t>继续完善</t>
   </si>
   <si>
     <t>周次</t>
@@ -95,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -117,6 +126,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -125,7 +141,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,14 +186,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,62 +232,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,24 +255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,19 +277,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,157 +439,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,17 +474,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,15 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -534,6 +528,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -559,145 +568,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,13 +1035,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.1333333333333" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1135,6 +1144,23 @@
       </c>
       <c r="E6" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>43263</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1162,13 +1188,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040211_zhangyaohui.xlsx
+++ b/hero/doc/log/log_201608040211_zhangyaohui.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>日期</t>
   </si>
@@ -82,15 +82,6 @@
   </si>
   <si>
     <t>下一次查阅资料</t>
-  </si>
-  <si>
-    <t>配置一些代码</t>
-  </si>
-  <si>
-    <t>没有完成</t>
-  </si>
-  <si>
-    <t>继续完善</t>
   </si>
   <si>
     <t>周次</t>
@@ -104,10 +95,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -126,14 +117,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,8 +176,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,38 +207,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -208,40 +215,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,8 +230,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,19 +268,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,157 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,11 +465,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,6 +515,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -528,21 +534,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -568,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +571,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,13 +1026,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.1333333333333" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1144,23 +1135,6 @@
       </c>
       <c r="E6" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>43263</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1188,13 +1162,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040211_zhangyaohui.xlsx
+++ b/hero/doc/log/log_201608040211_zhangyaohui.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>日期</t>
   </si>
@@ -66,12 +66,18 @@
     <t>成功</t>
   </si>
   <si>
+    <t>加深理解</t>
+  </si>
+  <si>
     <t>8:00-10:00</t>
   </si>
   <si>
     <t xml:space="preserve"> 将自己写的加入团队</t>
   </si>
   <si>
+    <t>查询一些资料加深理解</t>
+  </si>
+  <si>
     <t>14:00-16:40</t>
   </si>
   <si>
@@ -82,6 +88,42 @@
   </si>
   <si>
     <t>下一次查阅资料</t>
+  </si>
+  <si>
+    <t>7:00-9:00</t>
+  </si>
+  <si>
+    <t>实现controller</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>深入理解</t>
+  </si>
+  <si>
+    <t>浏览器访问</t>
+  </si>
+  <si>
+    <t>浏览器访问不能出现数据</t>
+  </si>
+  <si>
+    <t>将进行调试，然后改进</t>
+  </si>
+  <si>
+    <t>13:00-16:30</t>
+  </si>
+  <si>
+    <t>1.对代码进行注释 2.了解jenkins和JIRA的使用</t>
+  </si>
+  <si>
+    <t>注释完成对软件有了一定的了解</t>
+  </si>
+  <si>
+    <t>3.初步讨论一下我们的项目立项</t>
+  </si>
+  <si>
+    <t>后面会进行深度讨论</t>
   </si>
   <si>
     <t>周次</t>
@@ -97,8 +139,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,6 +158,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -123,9 +166,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,7 +189,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,6 +211,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -176,24 +226,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,16 +242,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,22 +260,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,19 +304,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,163 +478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,11 +498,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,22 +541,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,15 +568,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,17 +587,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,31 +613,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,108 +646,117 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1026,17 +1077,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.1333333333333" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="36.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="40.5" customWidth="1"/>
     <col min="4" max="4" width="78" customWidth="1"/>
     <col min="5" max="5" width="53.1083333333333" customWidth="1"/>
   </cols>
@@ -1092,7 +1143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>43234</v>
       </c>
@@ -1105,19 +1156,25 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>43237</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1125,19 +1182,84 @@
         <v>43240</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>43265</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>43266</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3">
+        <v>43270</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1162,13 +1284,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040211_zhangyaohui.xlsx
+++ b/hero/doc/log/log_201608040211_zhangyaohui.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>日期</t>
   </si>
@@ -124,6 +124,33 @@
   </si>
   <si>
     <t>后面会进行深度讨论</t>
+  </si>
+  <si>
+    <t>熟悉一下JIRA的配置并破解</t>
+  </si>
+  <si>
+    <t>破解成功但是使用不熟练</t>
+  </si>
+  <si>
+    <t>会对此加深练习</t>
+  </si>
+  <si>
+    <t>完善立项</t>
+  </si>
+  <si>
+    <t>完善</t>
+  </si>
+  <si>
+    <t>后面会进行深度讨论并将自己的部分改善一些</t>
+  </si>
+  <si>
+    <t>完成测试计划书</t>
+  </si>
+  <si>
+    <t>初步完成</t>
+  </si>
+  <si>
+    <t>后续会有所改善</t>
   </si>
   <si>
     <t>周次</t>
@@ -151,6 +178,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -158,16 +200,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,22 +308,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,91 +316,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,19 +331,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,61 +499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,97 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,6 +522,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,22 +559,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,7 +568,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,17 +584,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,16 +611,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,146 +640,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1077,10 +1101,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1241,7 +1265,7 @@
       <c r="D9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3"/>
@@ -1250,8 +1274,59 @@
         <v>34</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>43271</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>43272</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>43273</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1284,13 +1359,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040211_zhangyaohui.xlsx
+++ b/hero/doc/log/log_201608040211_zhangyaohui.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>日期</t>
   </si>
@@ -90,6 +90,51 @@
     <t>下一次查阅资料</t>
   </si>
   <si>
+    <t>19:00-21:00</t>
+  </si>
+  <si>
+    <t>观看JPA视频</t>
+  </si>
+  <si>
+    <t>观看</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>修改depot</t>
+  </si>
+  <si>
+    <t>修改成功</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>观看spring视频</t>
+  </si>
+  <si>
+    <t xml:space="preserve">继续观看 </t>
+  </si>
+  <si>
+    <t>继续观看</t>
+  </si>
+  <si>
+    <t>观看mvc视频</t>
+  </si>
+  <si>
+    <t>继续学习</t>
+  </si>
+  <si>
+    <t>配置web文件</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>继续编写</t>
+  </si>
+  <si>
     <t>7:00-9:00</t>
   </si>
   <si>
@@ -147,10 +192,22 @@
     <t>完成测试计划书</t>
   </si>
   <si>
-    <t>初步完成</t>
+    <t>初步完成大致框架</t>
   </si>
   <si>
     <t>后续会有所改善</t>
+  </si>
+  <si>
+    <t>13:00-16:00</t>
+  </si>
+  <si>
+    <t>继续完善测试计划书</t>
+  </si>
+  <si>
+    <t>比上次更完善</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>周次</t>
@@ -165,9 +222,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -175,6 +232,96 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,29 +333,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,60 +356,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -291,24 +364,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,187 +388,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,45 +579,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -588,6 +606,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -599,15 +665,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,10 +685,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,133 +697,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -777,7 +834,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1101,10 +1158,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1220,7 +1277,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>43265</v>
+        <v>43241</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -1237,10 +1294,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>43266</v>
+        <v>43243</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1253,87 +1310,268 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3">
-        <v>43270</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="1">
+        <v>43245</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>43247</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" ht="27" customHeight="1" spans="1:5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>43271</v>
+        <v>43248</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>43272</v>
+        <v>43254</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>43259</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>43262</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>43265</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>43266</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3">
+        <v>43270</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" ht="27" customHeight="1" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>43271</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>43272</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
         <v>43273</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>43276</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>43277</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1359,13 +1597,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040211_zhangyaohui.xlsx
+++ b/hero/doc/log/log_201608040211_zhangyaohui.xlsx
@@ -102,7 +102,7 @@
     <t>修改</t>
   </si>
   <si>
-    <t>修改depot</t>
+    <t>修改dingdan</t>
   </si>
   <si>
     <t>修改成功</t>
@@ -221,10 +221,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -232,6 +232,20 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,6 +257,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -251,8 +279,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,28 +356,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -297,29 +365,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,52 +378,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -388,67 +388,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,115 +568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,6 +587,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,33 +647,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,28 +671,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,10 +685,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,133 +697,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1160,8 +1160,8 @@
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
